--- a/Validation_Suite.xlsx
+++ b/Validation_Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhushan/Desktop/Adjust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67D4CA3-89B4-7C4F-8F41-288171007480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B2B630A-D66E-5D43-9B84-F96FA949EABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{C0FD536B-D434-4265-901C-0C13E46F13EB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="158">
   <si>
     <t>TEST CASE DESCRIPTION</t>
   </si>
@@ -121,11 +121,6 @@
   </si>
   <si>
     <t>Validating the card number field by giving valid card number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Click on the "Card Number" field .
-2.Enter a 16 digit card number.
-</t>
   </si>
   <si>
     <t>Card Number : 1234 2341 5678 6785</t>
@@ -267,9 +262,6 @@
     <t>Country Selection : Germany</t>
   </si>
   <si>
-    <t>When selected a specific country(Germany) from the Country dropdown menu the the State or province drop down should have only the states or province of that country(germany)</t>
-  </si>
-  <si>
     <t>PI_01_FTC_12</t>
   </si>
   <si>
@@ -313,28 +305,16 @@
     <t>Checking whether the seletion of Country,State or Province ,City and Postal Code are related to each other.</t>
   </si>
   <si>
-    <t xml:space="preserve">when anything other than numbers is provided in the Postal Code field then proper error message is displayed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When characters or special characters or less than 16 digits or more than 16 digits are given in the Card Number field then proper error message is displayed. </t>
-  </si>
-  <si>
     <t>when given a 16 digit valid card number in the "Card Number" field ,then it should be accepted.</t>
   </si>
   <si>
     <t>when the valid card holder name is provided then it should be accepted.</t>
   </si>
   <si>
-    <t xml:space="preserve">when an Invalid Card holder name is given then proper error message is displayed. </t>
-  </si>
-  <si>
     <t>when the valid billing address is given in the field then it should be accepted.(The address may be the combination of characters,special characters , numbers and spaces)</t>
   </si>
   <si>
     <t>when the valid city name is provided then it should be accepted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when an Invalid city name is given then proper error message is displayed. </t>
   </si>
   <si>
     <t>The Country dropdown menu should have all the country names listed in it.</t>
@@ -372,9 +352,6 @@
     <t>Checking if the CVV/Security Code field is a password encrypted field.</t>
   </si>
   <si>
-    <t>when the CVV/Security code is enteres in the field then code should be encrypted either as *** or ### or it should be hidden.The code should not be displayed.</t>
-  </si>
-  <si>
     <t>Validating CVV/Security Code-Positive Case</t>
   </si>
   <si>
@@ -411,9 +388,6 @@
   </si>
   <si>
     <t>Currency display</t>
-  </si>
-  <si>
-    <t>Checking if correct currency type is display along with the payment amount.</t>
   </si>
   <si>
     <t>1.Check the currency type is dislayed beside amount to be paid .</t>
@@ -556,6 +530,42 @@
   </si>
   <si>
     <t>Validating CVV/Security Code - Password Type</t>
+  </si>
+  <si>
+    <t>Checking for multiple requests</t>
+  </si>
+  <si>
+    <t>Once the transaction is initiated, the Cntinue button should be disabled to avoid multiple requests.</t>
+  </si>
+  <si>
+    <t>When selected a specific country(Germany) from the Country dropdown menu then the State or province drop down should have only the states or province of that country(germany)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on the "Card Number" field .
+2.Enter a 16 digit valid card number.
+</t>
+  </si>
+  <si>
+    <t>1.Fill all the details in form.
+2.Click on "Continue" button and try to click multiple times.</t>
+  </si>
+  <si>
+    <t>Checking if correct currency type is displayed along with the payment amount.</t>
+  </si>
+  <si>
+    <t>when the CVV/Security code is entered in the field then code should be encrypted either as *** or ### or it should be hidden.The code should not be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when anything other than numbers is provided in the Postal Code field then proper error message should be displayed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when an Invalid city name is given then proper error message should be displayed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when an Invalid Card holder name is given then proper error message should be displayed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When characters or special characters or less than 16 digits or more than 16 digits are given in the Card Number field then proper error message should be displayed. </t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1051,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1096,19 +1106,19 @@
         <v>13</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="14"/>
@@ -1121,19 +1131,19 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="15" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="14"/>
@@ -1146,444 +1156,444 @@
         <v>13</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="86.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="G5" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>47</v>
-      </c>
       <c r="G7" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="G8" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="G9" s="15" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="G11" s="15" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="G13" s="15" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="60.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="44.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="14"/>
@@ -1633,7 +1643,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1676,94 +1686,113 @@
     </row>
     <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="1"/>
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H7" s="1"/>
@@ -1780,7 +1809,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H9" xr:uid="{B5452A89-C259-1146-A549-E9D425E850F9}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{B2ED1882-E604-4CA4-8E77-7CF48DA2E949}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{B2ED1882-E604-4CA4-8E77-7CF48DA2E949}">
       <formula1>"Desktop,Mobile,Desktop&amp;Mobile"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Validation_Suite.xlsx
+++ b/Validation_Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhushan/Desktop/Adjust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B2B630A-D66E-5D43-9B84-F96FA949EABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2145C368-440D-9D4C-AC40-A7BF995E1356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{C0FD536B-D434-4265-901C-0C13E46F13EB}"/>
   </bookViews>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1823,7 +1823,7 @@
   <dimension ref="C6:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1844,7 +1844,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
@@ -1852,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>10</v>
@@ -1872,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
